--- a/Datos/Database by set/Set with text box/Xlsx sets/Ravnica Allegiance Tokens (TRNA).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Ravnica Allegiance Tokens (TRNA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,308 +444,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Beast', ['Token Creature — Beast', 'Trample', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Centaur', ['Token Creature — Centaur', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trample</t>
+          <t>('Domri, Chaos Bringer Emblem', ['Emblem — Domri', 'At the beginning of each end step, create a 4/4 red and green Beast creature token with trample.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Frog Lizard', ['Token Creature — Frog Lizard', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Centaur</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Centaur</t>
+          <t>('Human', ['Token Creature — Human', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Illusion', ['Token Creature — Illusion', 'Whenever this creature blocks a creature, that creature doesn’t untap during its controller’s next untap step.', '0/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Domri, Chaos Bringer Emblem</t>
+          <t>('Ooze', ['Token Creature — Ooze', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Emblem — Domri</t>
+          <t>('Sphinx', ['Token Creature — Sphinx', 'Flying, vigilance', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>At the beginning of each end step, create a 4/4 red and green Beast creature token with trample.</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Frog Lizard</t>
+          <t>('Thopter', ['Token Artifact Creature — Thopter', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Creature — Frog Lizard</t>
+          <t>('Treasure', ['Token Artifact — Treasure', '{T}, Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Token Creature — Human</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Illusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Token Creature — Illusion</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Whenever this creature blocks a creature, that creature doesn’t untap during its controller’s next untap step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>0/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Token Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sphinx</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Token Creature — Sphinx</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Flying, vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Artifact — Treasure</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{T}, Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
